--- a/CUSTOR.EIC.API/wwwroot/incentiveItem.xlsx
+++ b/CUSTOR.EIC.API/wwwroot/incentiveItem.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>ItemName</t>
   </si>
@@ -93,9 +93,6 @@
     <t>HS00005</t>
   </si>
   <si>
-    <t>HS00001</t>
-  </si>
-  <si>
     <t>HS00002</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
   </si>
   <si>
     <t>HS00018</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -480,296 +480,350 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2">
+        <v>1000</v>
+      </c>
+      <c r="E2">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>4000</v>
+      </c>
+      <c r="E3">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="C2">
-        <v>1000</v>
-      </c>
-      <c r="D2">
+      <c r="D4">
+        <v>10000</v>
+      </c>
+      <c r="E4">
         <v>517</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
         <v>4000</v>
       </c>
-      <c r="D3">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="E5">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>5000</v>
+      </c>
+      <c r="E7">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9">
+        <v>400</v>
+      </c>
+      <c r="E9">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4">
-        <v>10000</v>
-      </c>
-      <c r="D4">
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
         <v>517</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13">
+        <v>28</v>
+      </c>
+      <c r="E13">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5">
-        <v>4000</v>
-      </c>
-      <c r="D5">
+      <c r="E15">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17">
+        <v>50</v>
+      </c>
+      <c r="E17">
         <v>517</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7">
-        <v>5000</v>
-      </c>
-      <c r="D7">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9">
-        <v>400</v>
-      </c>
-      <c r="D9">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18">
         <v>2</v>
       </c>
-      <c r="D10">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11">
+      <c r="E18">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19">
         <v>2</v>
       </c>
-      <c r="D11">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13">
-        <v>28</v>
-      </c>
-      <c r="D13">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15">
-        <v>10</v>
-      </c>
-      <c r="D15">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16">
+      <c r="E19">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20">
         <v>50</v>
       </c>
-      <c r="D16">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17">
-        <v>50</v>
-      </c>
-      <c r="D17">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20">
-        <v>50</v>
-      </c>
-      <c r="D20">
+      <c r="E20">
         <v>516</v>
       </c>
     </row>
